--- a/experiment_results/3763GATEWAY.xlsx
+++ b/experiment_results/3763GATEWAY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1357"/>
+  <dimension ref="A1:I1267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Historical Tours']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Workshops and Classes', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Performing Arts', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Festivals', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P92</t>
+          <t>PRODUCTCODE: 6288P9</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory, the Brooklyn Bridge and more.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty 60-Minute Sightseeing Cruise</t>
+          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 235</t>
+          <t>TotalReviews: 461</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
+          <t>PRODUCTCODE: 15081P92</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
+          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory, the Brooklyn Bridge and more.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
+          <t>Title: Statue of Liberty 60-Minute Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 234</t>
+          <t>TotalReviews: 235</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103533P4</t>
+          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: 30 minute speedboat tour of New York Harbor. Boats stop multiple times for you to get best photos of Manhattan. Daily departures from North Cove Marina downtown.</t>
+          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Brooklyn Bridge Boat Tour</t>
+          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 139</t>
+          <t>TotalReviews: 234</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P2</t>
+          <t>PRODUCTCODE: 103533P4</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: 30 minute speedboat tour of New York Harbor. Boats stop multiple times for you to get best photos of Manhattan. Daily departures from North Cove Marina downtown.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
+          <t>Title: Statue of Liberty and Brooklyn Bridge Boat Tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 125</t>
+          <t>TotalReviews: 139</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P1</t>
+          <t>PRODUCTCODE: 195909P2</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 125</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P20</t>
+          <t>PRODUCTCODE: 12214P1</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
+          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
+          <t>Title: Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 98</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P11</t>
+          <t>PRODUCTCODE: 6288P20</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close to the Statue of Liberty for great views and photos all from the comfort of the boat. Enjoy the New York City skyline and get great photos of New York's most famous buildings.</t>
+          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Statue of Liberty Express Boat Cruise &amp; Guided 9/11 Memorial </t>
+          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 64</t>
+          <t>TotalReviews: 98</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P3</t>
+          <t>PRODUCTCODE: 13616P11</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty, Ellis Island and the Manhattan skyline are just a few of the sights you can see from the boat. This daytime sail offers the perfect opportunity to sit back and relax while you take in close-up views of the city.</t>
+          <t>Summarized description: Get up close to the Statue of Liberty for great views and photos all from the comfort of the boat. Enjoy the New York City skyline and get great photos of New York's most famous buildings.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: New York City Shearwater Daytime Statue Sail</t>
+          <t xml:space="preserve">Title: NYC Statue of Liberty Express Boat Cruise &amp; Guided 9/11 Memorial </t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 64</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18830P4</t>
+          <t>PRODUCTCODE: 13616P16</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Take in close-up views of the Statue of Liberty, Ellis Island and the Manhattan skyline. 105 minute sunset sail will be the highlight of your New York City stay.</t>
+          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail aboard Shearwater</t>
+          <t>Title: Statue of Liberty Express Guided Tour</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P16</t>
+          <t>PRODUCTCODE: 15081P222</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
+          <t>Summarized description: Get up close to the Statue of Liberty and Ellis Island on this sightseeing cruise. Admire views of the NYC Skyline including One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Express Guided Tour</t>
+          <t>Title: New York City Sightseeing Cruise: Statue of Liberty &amp; Manhattan Skyline</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 52</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P222</t>
+          <t>PRODUCTCODE: 2540P57</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close to the Statue of Liberty and Ellis Island on this sightseeing cruise. Admire views of the NYC Skyline including One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The sightseeing cruise includes breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower) and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: New York City Sightseeing Cruise: Statue of Liberty &amp; Manhattan Skyline</t>
+          <t>Title: New York See NYC Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P24</t>
+          <t>PRODUCTCODE: 195909P3</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner America 2.0 is 105-feet in length and has about 3600 square feet of sail area. Sail by Manhattan's Financial District, One World Trade and Ellis Island. Enjoy up-close views of Lady Liberty and a great photo opportunity.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: New York City Sunset Sail to the Statue of Liberty</t>
+          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 49</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P3</t>
+          <t>PRODUCTCODE: 74526P27</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
+          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P27</t>
+          <t>PRODUCTCODE: 74526P3</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
+          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
+          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P3</t>
+          <t>PRODUCTCODE: 15081P134</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
+          <t>Summarized description: See all that Ellis Island, the Statue of Liberty and Battery Park has to offer in this VIP ACCESS Tour. After meeting your guide at the meeting location, you will then take a 30-minute guided walking tour of Battery Park. Afterward, your guide will escort you through the Reserve Access Line to the statue of Liberty.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
+          <t>Title: Ellis Island Statue of Liberty Roundtrip Ferry Ride 8:30 1st Tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P134</t>
+          <t>PRODUCTCODE: 15081P190</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: See all that Ellis Island, the Statue of Liberty and Battery Park has to offer in this VIP ACCESS Tour. After meeting your guide at the meeting location, you will then take a 30-minute guided walking tour of Battery Park. Afterward, your guide will escort you through the Reserve Access Line to the statue of Liberty.</t>
+          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Ellis Island Statue of Liberty Roundtrip Ferry Ride 8:30 1st Tour</t>
+          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P190</t>
+          <t>PRODUCTCODE: 15081P200</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
+          <t>Summarized description: 60-minute boat ride to see the Statue of Liberty &amp; Ellis Island. Multilingual audio tour is available in English, Italian, German, Spanish, French, Korean, Portuguese, Chinese and Japanese, via a downloadable app.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
+          <t xml:space="preserve">Title: 60-Minute Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P200</t>
+          <t>PRODUCTCODE: 15081P143</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: 60-minute boat ride to see the Statue of Liberty &amp; Ellis Island. Multilingual audio tour is available in English, Italian, German, Spanish, French, Korean, Portuguese, Chinese and Japanese, via a downloadable app.</t>
+          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island and the Brooklyn Bridge. Get up close to Lady Liberty and Ellis Island on the Sunset Cruise. Enjoy the NYC Skyline and the sunsets and the lights of the City come to life.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 60-Minute Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: NYC: Statue of Liberty &amp; Skyline 90 Min Sunset Cruise &amp; Cash Bar</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P143</t>
+          <t>PRODUCTCODE: 336379P66</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island and the Brooklyn Bridge. Get up close to Lady Liberty and Ellis Island on the Sunset Cruise. Enjoy the NYC Skyline and the sunsets and the lights of the City come to life.</t>
+          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: NYC: Statue of Liberty &amp; Skyline 90 Min Sunset Cruise &amp; Cash Bar</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P66</t>
+          <t>PRODUCTCODE: 195909P7</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
+          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
+          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P1</t>
+          <t>PRODUCTCODE: 15081P154</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
+          <t>Summarized description: Visit the 911 Memorial Museum and New York's Ground Zero where the World Trade Center was. Sail around Statue of Liberty on a 60-minute sightseeing cruise that also journeys under the Brooklyn Bridge &amp; over to Ellis Island.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island</t>
+          <t xml:space="preserve">Title: 911 Memorial Museum &amp; 60 Lady Liberty Cruise of NYC </t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P275</t>
+          <t>PRODUCTCODE: 15081P117</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise will depart from under the Brooklyn Bridge and sail under the Manhattan Bridge where your we see the whole NYC skyline from the tip of Manhattan. On the cruise we will sail very close to the Statue of Liberty for the picture perfect photo.</t>
+          <t>Summarized description: You will receive a personalized overview of Lady Liberty and Ellis Island. You will board your Statue of Liberty Express bus in Midtown to begin your 6-hour tour with your local expert guide.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Skyline: Harbor Lights Night Sightseeing Cruise </t>
+          <t>Title: NYC Statue of Liberty Tour from Midtown</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87512P2</t>
+          <t>PRODUCTCODE: 6288P51</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Tour will be guided from land with the option of taking a ferry ride at the conclusion of the tour. This tour is unique because we don't spend several hours on the Liberty or Ellis Island with massive crowds.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Lower Manhattan Tour with Statue of Liberty View</t>
+          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P169</t>
+          <t>PRODUCTCODE: 15081P289</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
+          <t>Summarized description: Double Decker Bus tour takes you to Times Square, Chinatown, One World Trade, Battery Park and the Statue of Liberty. upgrade to go on the Full City tour on Big Bus that will take you to Central Park Harlem and the Museum Mile.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
+          <t xml:space="preserve">Title: Big Bus Double Decker Tour &amp; Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P7</t>
+          <t>PRODUCTCODE: 15081P466</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
+          <t>Summarized description: The 90-minute NYC sunset cruise departing from under the Brooklyn Bridge offers a unique opportunity to witness the beautiful NYC skyline. The duration of the cruise is just right to relax and enjoy refreshments while socializing with fellow passengers.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
+          <t>Title: NYC Statue of Liberty Sunset &amp; Skyline Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P98</t>
+          <t>PRODUCTCODE: 2540P56</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Head uptown to experience The 160-year history of St. Patrick’s Cathedral. skip the line tickets to MOMA with this NYC Combo.</t>
+          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise, St Patrick's Cathedral &amp; Moma entrance </t>
+          <t>Title: Lady Liberty Lunch Cruise</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P117</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: You will receive a personalized overview of Lady Liberty and Ellis Island. You will board your Statue of Liberty Express bus in Midtown to begin your 6-hour tour with your local expert guide.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tour from Midtown</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P51</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P289</t>
+          <t>PRODUCTCODE: 12214P5</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Double Decker Bus tour takes you to Times Square, Chinatown, One World Trade, Battery Park and the Statue of Liberty. upgrade to go on the Full City tour on Big Bus that will take you to Central Park Harlem and the Museum Mile.</t>
+          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Big Bus Double Decker Tour &amp; Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P19</t>
+          <t>PRODUCTCODE: 255280P1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 305165P24</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your tour guide for a 1H introduction excursion and get an amazing view of the NYC skyline and the Statue of Liberty. Enjoy the ride over to Staten Island on the Staten Island Ferry. When your arrive at Staten Island,your tour guide will take you to the theStaten Island 9/11 Memorial.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: NYC : Guided Excursion by ferry &amp; View of Statue of Liberty</t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20804P6</t>
+          <t>PRODUCTCODE: 42097P11</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty Boat Tour &amp; 9/11 Memorial Guided Tour Combo leads visitors on a guided tour of the 9/ 11 Memorial. The tour also includes transportation to Ellis Island and Liberty Island.</t>
+          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, 9/11 Memorial Guided Tour, Tribute Museum Combo</t>
+          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P193</t>
+          <t>PRODUCTCODE: 15081P233</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description:  Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise. Tickets valid for any time you choose for the statue of liberty 60 minute cruise. The time chosen is for the 911 Memorial Museum.</t>
+          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip the Line 9/11 Memorial Museum and Statue of Liberty Cruise </t>
+          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P8</t>
+          <t>PRODUCTCODE: 336379P9</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Top 4 attractions good for 7 days. Statue of Liberty, Ellis Island Priority Ferry reserve ticket and 911 Memorial Museum Exclusive Skip the Line Reserve Access. 60 minute sightseeing cruise and a 30 minute orientation tour.</t>
+          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: TourPass NY: Statue of Liberty, Ellis Island, 911 Memorial Museum, Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130111P7</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Passengers will be picked up in Queens and on Bowery Street in Manhattan in the morning. Our day concludes with visits to Times Square, Madame Tussauds Wax Museum, Museum of Modern Art, and the USS Intrepid.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: New York City Sightseeing Tour (with Statue Liberty Cruise)</t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P52</t>
+          <t>PRODUCTCODE: 15081P204</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
+          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
+          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P18</t>
+          <t>PRODUCTCODE: 15081P528</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Pass right next to the Statue of Liberty and Ellis Island. Enjoy unforgettable photo opportunities as you capture spectacular views of these iconic monuments and the Manhattan skyline.</t>
+          <t>Summarized description: Exclusive package features the iconic Empire State Building observation deck and a scenic 60-minute cruise to the Statue of Liberty. Book now to unlock a curated journey that harmonizes the city's skyline and its historical treasures, promising an experience that transcends the ordinary.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Sightseeing Cruise &amp; Double Decker Tour</t>
+          <t xml:space="preserve">Title: Empire State Observation Admission and 60 Min Statue Cruise </t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P180</t>
+          <t>PRODUCTCODE: 15081P188</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description:  Sunset cruise is your new favorite after-work spot for great Music, a bite to eat, good vibes and good times. Enjoy the New York’s skyline panoramas with the Statue of Liberty, Ellis Island, Brooklyn Bridge &amp; more.</t>
+          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Then head uptown to the iconic St Patrick's Cathedral and Ripley's Believe It or Not Museum.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island, and Brooklyn Bridge After Hour Cruise</t>
+          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise &amp; St Patrick's Cathedral </t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P5</t>
+          <t>PRODUCTCODE: 336379P19</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
+          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
+          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66965P2</t>
+          <t>PRODUCTCODE: 2194COMBO</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Bus and Boat Tour in New York City. 1 hour boat ride pass the Statue of Liberty. 6 hour bus tour with a tour Guide. 24 passengers per bus.</t>
+          <t>Summarized description: Enjoy breathtaking views from the Empire State Building Observatory. Visit over two million works of art at the Metropolitan Museum of Art. Take a cruise around Liberty Island for a close up of her most famous resident, the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Best New York City Bus Tour and Boat Ride</t>
+          <t>Title: New York Super Saver: Empire State Building, Metropolitan Museum of Art and Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P70</t>
+          <t>PRODUCTCODE: 13616P20</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Lady Liberty and Ellis Island with your own private guide, who'll give you a personalized overview of the island. Plus enjoy a Double Decker downtown tour departing every 20 mins where you can hop off and hop off at famous locations like Empire State Building, Times Square, the Village.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: New York City Double Decker Bus and Statue of Liberty Walking Tour Combo</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P329</t>
+          <t>PRODUCTCODE: 172032P1</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory and the Brooklyn Bridge.</t>
+          <t>Summarized description: We provide the only water crafts that are allowed to transit under the Liberty - Ellis Bridge. You will see New York harbor, the Statue of Liberty, Caven Point Beach and the NYC skyline. We adjust the float plan depending on water currents and weather conditions.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island Cruise with One World Trade Ticket</t>
+          <t>Title: NYC Statue of Liberty Kayak</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255280P1</t>
+          <t>PRODUCTCODE: 378258P1</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
+          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 194024P2</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85090P4</t>
+          <t>PRODUCTCODE: 336379P3</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Statue of Liberty Speed Boat + Guided Walking Tour includes a FREE Bottle of water, Slice of Pizza &amp; NYC Hat. Enjoy the breath-taking experience of lower Manhattan speeding across the Hudson River.</t>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Speed Boat + Guided Walking Tour</t>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P11</t>
+          <t>PRODUCTCODE: 368349P494</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
+          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
+          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P285</t>
+          <t>PRODUCTCODE: 2540P127</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Double Decker Bus tour includes a tour of Times Square, Chinatown, One World Trade and the 911 Memorial pools. Upgrade and include entrance tickets to the Statue of Liberty, 911 Memorial Museum and St Patrick's Cathedral Official Tour.</t>
+          <t>Summarized description: The Statue of Liberty Harbor cruise is the best way to view NYC's most iconic sights. Enjoy a snack or drink while you listen to narrated audio about New York's legendary skyline.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Big Bus NY Hop-On Hop-Off &amp; Statue of Liberty 60 Min Cruise </t>
+          <t xml:space="preserve">Title: Statue of Liberty One Hour Harbor Tour </t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P233</t>
+          <t>PRODUCTCODE: 122220P3</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
+          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P4</t>
+          <t>PRODUCTCODE: 441874P1</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: This express tour allows you to see the biggest attractions in NYC in one short trip. A world class guide and professional story teller will take you to the best places in the New York Harbor.</t>
+          <t>Summarized description: All aboard the Emerald Princess going along the Hudson River. No cheap experience here only the best customer service. Admire famous New York City landmarks such as Ellis Island, the Empire State Building.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Express Tour With Expert Guide!</t>
+          <t>Title: Statue of Liberty sightseeing boat tour aboard Emerald Princess</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 145071P59</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: Visit United Nations Headquarters to explore the one area of the city outside of US jurisdiction. Complimentary Liberty Cruise Admission to get close to Statue of Liberty and skyline of downtown Manhattan.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: One Day New York City Tour With Liberty Cruise</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 111861P16</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 455518P4</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Sail through the historic waters of New York’s harbor to Liberty Island where the world-famous Statue of Liberty stands proud. Walk through the incredible downtown skyline to one of the most iconic bridges in the world, The Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: Easy Access Statue of Liberty and Brooklyn Bridge Discovery Tour</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P204</t>
+          <t>PRODUCTCODE: 255071P4</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P528</t>
+          <t>PRODUCTCODE: 324821P297</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive package features the iconic Empire State Building observation deck and a scenic 60-minute cruise to the Statue of Liberty. Book now to unlock a curated journey that harmonizes the city's skyline and its historical treasures, promising an experience that transcends the ordinary.</t>
+          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Empire State Observation Admission and 60 Min Statue Cruise </t>
+          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423559P2</t>
+          <t>PRODUCTCODE: 368349P502</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Island ferry tour puts you at the center of the experience of this iconic landmark. Your expert guide will share the history, fun facts, and details you would certainly miss if you went on your own.</t>
+          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: The Statue of Liberty Walking Guided Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P188</t>
+          <t>PRODUCTCODE: 12855P231</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Then head uptown to the iconic St Patrick's Cathedral and Ripley's Believe It or Not Museum.</t>
+          <t>Summarized description: The Statue of Liberty is a symbol of New York. It can be seen from the bridge of the ferries that leave from Battery Park. You can visit the pedestal terrace and the observatory in the crown.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise &amp; St Patrick's Cathedral </t>
+          <t>Title: Statue of Liberty Private Tour</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P19</t>
+          <t>PRODUCTCODE: 263477P6</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
+          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
+          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P20</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19504,1356 +19504,6 @@
       <c r="H1267" t="inlineStr"/>
       <c r="I1267" t="inlineStr"/>
     </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr"/>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr"/>
-      <c r="I1268" t="inlineStr"/>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr"/>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr"/>
-      <c r="I1269" t="inlineStr"/>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
-      <c r="I1270" t="inlineStr"/>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr"/>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr"/>
-      <c r="I1271" t="inlineStr"/>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 378258P1</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr"/>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr"/>
-      <c r="I1272" t="inlineStr"/>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr"/>
-      <c r="I1273" t="inlineStr"/>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr"/>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr"/>
-      <c r="I1274" t="inlineStr"/>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr"/>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr"/>
-      <c r="I1275" t="inlineStr"/>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr"/>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr"/>
-      <c r="I1276" t="inlineStr"/>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 194024P2</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr"/>
-      <c r="I1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr"/>
-      <c r="I1278" t="inlineStr"/>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Cruise</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr"/>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr"/>
-      <c r="I1279" t="inlineStr"/>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr"/>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr"/>
-      <c r="I1281" t="inlineStr"/>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 368349P494</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr"/>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr"/>
-      <c r="I1282" t="inlineStr"/>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr"/>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 72092P6</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Summarized description: Skyline Cruises has been recognized as the best overall value for NYC dinner cruises, NY yacht charters, and party boat cruises in New York Harbor. With an A+ rating with the Better Business Bureau, we are a trusted source for your special event cruises.</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
-      <c r="I1288" t="inlineStr"/>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Title: NYC Skyline and Statue of Liberty Dinner Cruise from Queens</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
-      <c r="I1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2540P127</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>Summarized description: The Statue of Liberty Harbor cruise is the best way to view NYC's most iconic sights. Enjoy a snack or drink while you listen to narrated audio about New York's legendary skyline.</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr"/>
-      <c r="I1293" t="inlineStr"/>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Statue of Liberty One Hour Harbor Tour </t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr"/>
-      <c r="I1294" t="inlineStr"/>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr"/>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr"/>
-      <c r="I1295" t="inlineStr"/>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr"/>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr"/>
-      <c r="I1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 122220P3</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr"/>
-      <c r="I1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr"/>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr"/>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 441874P1</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr"/>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Summarized description: All aboard the Emerald Princess going along the Hudson River. No cheap experience here only the best customer service. Admire famous New York City landmarks such as Ellis Island, the Empire State Building.</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr"/>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty sightseeing boat tour aboard Emerald Princess</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr"/>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 237089P4</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 106680P1</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Summarized description:  YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories, memories and narration. Ferry tickets are an additional $18.50 per person.</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 145071P59</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit United Nations Headquarters to explore the one area of the city outside of US jurisdiction. Complimentary Liberty Cruise Admission to get close to Statue of Liberty and skyline of downtown Manhattan.</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Title: One Day New York City Tour With Liberty Cruise</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 42097P15</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 111861P16</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5042SPIRIT4TH</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Summarized description: Take pictures of Lady Liberty and the Brooklyn Bridge while you dine. Head topside for nighttime shots of the skyline from Spirit's rooftop lounge. Includes a 5-course buffet dinner, an open premium bar, and DJ entertainment.</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Title: New York Independence Day Fireworks Dinner Cruise</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255071P4</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 324821P297</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 12855P231</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Summarized description: The Statue of Liberty is a symbol of New York. It can be seen from the bridge of the ferries that leave from Battery Park. You can visit the pedestal terrace and the observatory in the crown.</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Private Tour</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 263477P6</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr"/>
-      <c r="I1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr"/>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr"/>
-      <c r="I1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr"/>
-      <c r="I1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr"/>
-      <c r="I1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
-      <c r="I1357" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/3763GATEWAY.xlsx
+++ b/experiment_results/3763GATEWAY.xlsx
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P134</t>
+          <t>PRODUCTCODE: 15081P200</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: See all that Ellis Island, the Statue of Liberty and Battery Park has to offer in this VIP ACCESS Tour. After meeting your guide at the meeting location, you will then take a 30-minute guided walking tour of Battery Park. Afterward, your guide will escort you through the Reserve Access Line to the statue of Liberty.</t>
+          <t>Summarized description: 60-minute boat ride to see the Statue of Liberty &amp; Ellis Island. Multilingual audio tour is available in English, Italian, German, Spanish, French, Korean, Portuguese, Chinese and Japanese, via a downloadable app.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Ellis Island Statue of Liberty Roundtrip Ferry Ride 8:30 1st Tour</t>
+          <t xml:space="preserve">Title: 60-Minute Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P190</t>
+          <t>PRODUCTCODE: 15081P143</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
+          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island and the Brooklyn Bridge. Get up close to Lady Liberty and Ellis Island on the Sunset Cruise. Enjoy the NYC Skyline and the sunsets and the lights of the City come to life.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
+          <t>Title: NYC: Statue of Liberty &amp; Skyline 90 Min Sunset Cruise &amp; Cash Bar</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P200</t>
+          <t>PRODUCTCODE: 336379P66</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: 60-minute boat ride to see the Statue of Liberty &amp; Ellis Island. Multilingual audio tour is available in English, Italian, German, Spanish, French, Korean, Portuguese, Chinese and Japanese, via a downloadable app.</t>
+          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 60-Minute Statue of Liberty Sightseeing Cruise </t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P143</t>
+          <t>PRODUCTCODE: 195909P7</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island and the Brooklyn Bridge. Get up close to Lady Liberty and Ellis Island on the Sunset Cruise. Enjoy the NYC Skyline and the sunsets and the lights of the City come to life.</t>
+          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: NYC: Statue of Liberty &amp; Skyline 90 Min Sunset Cruise &amp; Cash Bar</t>
+          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P66</t>
+          <t>PRODUCTCODE: 15081P98</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
+          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Head uptown to experience The 160-year history of St. Patrick’s Cathedral. skip the line tickets to MOMA with this NYC Combo.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
+          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise, St Patrick's Cathedral &amp; Moma entrance </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P7</t>
+          <t>PRODUCTCODE: 15081P154</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
+          <t>Summarized description: Visit the 911 Memorial Museum and New York's Ground Zero where the World Trade Center was. Sail around Statue of Liberty on a 60-minute sightseeing cruise that also journeys under the Brooklyn Bridge &amp; over to Ellis Island.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
+          <t xml:space="preserve">Title: 911 Memorial Museum &amp; 60 Lady Liberty Cruise of NYC </t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P154</t>
+          <t>PRODUCTCODE: 15081P117</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the 911 Memorial Museum and New York's Ground Zero where the World Trade Center was. Sail around Statue of Liberty on a 60-minute sightseeing cruise that also journeys under the Brooklyn Bridge &amp; over to Ellis Island.</t>
+          <t>Summarized description: You will receive a personalized overview of Lady Liberty and Ellis Island. You will board your Statue of Liberty Express bus in Midtown to begin your 6-hour tour with your local expert guide.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 911 Memorial Museum &amp; 60 Lady Liberty Cruise of NYC </t>
+          <t>Title: NYC Statue of Liberty Tour from Midtown</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P117</t>
+          <t>PRODUCTCODE: 6288P51</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: You will receive a personalized overview of Lady Liberty and Ellis Island. You will board your Statue of Liberty Express bus in Midtown to begin your 6-hour tour with your local expert guide.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tour from Midtown</t>
+          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P51</t>
+          <t>PRODUCTCODE: 15081P289</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: Double Decker Bus tour takes you to Times Square, Chinatown, One World Trade, Battery Park and the Statue of Liberty. upgrade to go on the Full City tour on Big Bus that will take you to Central Park Harlem and the Museum Mile.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
+          <t xml:space="preserve">Title: Big Bus Double Decker Tour &amp; Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P289</t>
+          <t>PRODUCTCODE: 15081P466</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Double Decker Bus tour takes you to Times Square, Chinatown, One World Trade, Battery Park and the Statue of Liberty. upgrade to go on the Full City tour on Big Bus that will take you to Central Park Harlem and the Museum Mile.</t>
+          <t>Summarized description: The 90-minute NYC sunset cruise departing from under the Brooklyn Bridge offers a unique opportunity to witness the beautiful NYC skyline. The duration of the cruise is just right to relax and enjoy refreshments while socializing with fellow passengers.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Big Bus Double Decker Tour &amp; Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: NYC Statue of Liberty Sunset &amp; Skyline Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P466</t>
+          <t>PRODUCTCODE: 2540P56</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: The 90-minute NYC sunset cruise departing from under the Brooklyn Bridge offers a unique opportunity to witness the beautiful NYC skyline. The duration of the cruise is just right to relax and enjoy refreshments while socializing with fellow passengers.</t>
+          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Sunset &amp; Skyline Happy Hour Cruise</t>
+          <t>Title: Lady Liberty Lunch Cruise</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P56</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Lady Liberty Lunch Cruise</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P3</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P52</t>
+          <t>PRODUCTCODE: 12214P5</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
+          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
+          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P5</t>
+          <t>PRODUCTCODE: 255280P1</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
+          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
+          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255280P1</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 5042P73</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: This scenic cruise offers a 90-minute comprehensive experience of NYC’s must-see sights. With convenient Downtown pick-up location, board to see the historic and awe-inspiring Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: NYC Downtown Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P11</t>
+          <t>PRODUCTCODE: 15081P167</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
+          <t>Summarized description: Sail around the Statue of Liberty on a 60-minute sightseeing cruise. Journeys under the Brooklyn Bridge &amp; over to Ellis Island choose from admission to 1 or 3 attractions.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
+          <t>Title: NYC Landmarks Skip the Line Cruise and Attraction Ticket</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P233</t>
+          <t>PRODUCTCODE: 42097P11</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
+          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
+          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 15081P233</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 336379P9</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P204</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P528</t>
+          <t>PRODUCTCODE: 15081P204</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive package features the iconic Empire State Building observation deck and a scenic 60-minute cruise to the Statue of Liberty. Book now to unlock a curated journey that harmonizes the city's skyline and its historical treasures, promising an experience that transcends the ordinary.</t>
+          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Empire State Observation Admission and 60 Min Statue Cruise </t>
+          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P188</t>
+          <t>PRODUCTCODE: 15081P528</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Then head uptown to the iconic St Patrick's Cathedral and Ripley's Believe It or Not Museum.</t>
+          <t>Summarized description: Exclusive package features the iconic Empire State Building observation deck and a scenic 60-minute cruise to the Statue of Liberty. Book now to unlock a curated journey that harmonizes the city's skyline and its historical treasures, promising an experience that transcends the ordinary.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise &amp; St Patrick's Cathedral </t>
+          <t xml:space="preserve">Title: Empire State Observation Admission and 60 Min Statue Cruise </t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>

--- a/experiment_results/3763GATEWAY.xlsx
+++ b/experiment_results/3763GATEWAY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1267"/>
+  <dimension ref="A1:I1277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['Historical Tours', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Workshops and Classes']</t>
+          <t>Category: ['Scenic Tours', 'Workshops and Classes', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours', 'Museums']</t>
+          <t>Category: ['Modern Attractions', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Performing Arts', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Cruises', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800SLR</t>
+          <t>PRODUCTCODE: 2800SCC</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty. Learn fun facts about the iconic green-hued goddess as an informative guide brings the city’s sights and fascinating history to life.</t>
+          <t>Summarized description: Enjoy a 1.5-hour highlights cruise past New York's major sights. Enjoy a close encounter of the best kind with the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Circle Line: NYC Liberty Cruise</t>
+          <t>Title: New York City Landmarks Circle Line Cruise</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 674</t>
+          <t>TotalReviews: 899</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P9</t>
+          <t>PRODUCTCODE: 2800SLR</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty. Learn fun facts about the iconic green-hued goddess as an informative guide brings the city’s sights and fascinating history to life.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
+          <t>Title: Circle Line: NYC Liberty Cruise</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 461</t>
+          <t>TotalReviews: 674</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P92</t>
+          <t>PRODUCTCODE: 6288P9</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory, the Brooklyn Bridge and more.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and Statue of Liberty as the boat cruises into New York Harbor. Enjoy views from the open bow, or relax in the spacious climate controlled glassed-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty 60-Minute Sightseeing Cruise</t>
+          <t>Title: Statue of Liberty and New York City Skyline Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 235</t>
+          <t>TotalReviews: 461</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
+          <t>PRODUCTCODE: 344890MIN</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
+          <t>Summarized description: Admire New York's famous skyline and iconic sights from the water. See top New York attractions including the Empire State Building, Chrysler Building, Statue of Liberty, Brooklyn Bridge and United Nations.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
+          <t>Title: New York City Skyline Cruise</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 234</t>
+          <t>TotalReviews: 271</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103533P4</t>
+          <t>PRODUCTCODE: 15081P92</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: 30 minute speedboat tour of New York Harbor. Boats stop multiple times for you to get best photos of Manhattan. Daily departures from North Cove Marina downtown.</t>
+          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory, the Brooklyn Bridge and more.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Brooklyn Bridge Boat Tour</t>
+          <t>Title: Statue of Liberty 60-Minute Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 139</t>
+          <t>TotalReviews: 235</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P2</t>
+          <t>PRODUCTCODE: 5252CLIPPERCITY</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: Step aboard a historic sailing ship and cruise around New York Harbor. Take in magnificent views of this grand city by day. See the Statue of Liberty, Ellis Island, the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
+          <t>Title: NYC Statue of Liberty Tall Ship Sail aboard Clipper City</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 125</t>
+          <t>TotalReviews: 234</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P1</t>
+          <t>PRODUCTCODE: 3448TWILIGHT</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
+          <t>Summarized description: Watch the lights of America's largest city twinkle to life on this tranquil twilight cruise in New York Harbor. See top New York attractions such as the Empire State Building, Statue of Liberty and Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Sightseeing Cruise</t>
+          <t>Title: New York City Twilight Cruise</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 147</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P20</t>
+          <t>PRODUCTCODE: 195909P2</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Schooner Adirondack is an 80-foot, 2-masted schooner inspired by the pilot schooners of the 1890s. Sail past World One and Manhattan's towering financial district, Ellis Island and the Statue of Liberty.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: New York City Sailboat Day Cruise to the Statue of Liberty</t>
+          <t>Title: New York Sky Line and Statue of Liberty Sightseeing Cruise Pier36</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 98</t>
+          <t>TotalReviews: 125</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P11</t>
+          <t>PRODUCTCODE: 12214P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close to the Statue of Liberty for great views and photos all from the comfort of the boat. Enjoy the New York City skyline and get great photos of New York's most famous buildings.</t>
+          <t>Summarized description: Liberty Cruise Standard offers the best views of the Statue of Liberty and other New York City landmarks. Learn about New York’s historic landmarks with a live tour guide. Food and beverages are also available for purchase onboard.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Statue of Liberty Express Boat Cruise &amp; Guided 9/11 Memorial </t>
+          <t>Title: Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 64</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P16</t>
+          <t>PRODUCTCODE: 13616P11</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
+          <t>Summarized description: Get up close to the Statue of Liberty for great views and photos all from the comfort of the boat. Enjoy the New York City skyline and get great photos of New York's most famous buildings.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Express Guided Tour</t>
+          <t xml:space="preserve">Title: NYC Statue of Liberty Express Boat Cruise &amp; Guided 9/11 Memorial </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 64</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P222</t>
+          <t>PRODUCTCODE: 18830P3</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close to the Statue of Liberty and Ellis Island on this sightseeing cruise. Admire views of the NYC Skyline including One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: The Statue of Liberty, Ellis Island and the Manhattan skyline are just a few of the sights you can see from the boat. This daytime sail offers the perfect opportunity to sit back and relax while you take in close-up views of the city.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: New York City Sightseeing Cruise: Statue of Liberty &amp; Manhattan Skyline</t>
+          <t>Title: New York City Shearwater Daytime Statue Sail</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>TotalReviews: 53</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P57</t>
+          <t>PRODUCTCODE: 15081P222</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The sightseeing cruise includes breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower) and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
+          <t>Summarized description: Get up close to the Statue of Liberty and Ellis Island on this sightseeing cruise. Admire views of the NYC Skyline including One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: New York See NYC Sightseeing Cruise</t>
+          <t>Title: New York City Sightseeing Cruise: Statue of Liberty &amp; Manhattan Skyline</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 52</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P3</t>
+          <t>PRODUCTCODE: 2540P57</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
+          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The sightseeing cruise includes breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower) and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
+          <t>Title: New York See NYC Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P27</t>
+          <t>PRODUCTCODE: 195909P3</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island, and the Brooklyn Bridge on a sunset cruise. Enjoy views of New York City's skyline and watch as the city lights come to life.</t>
+          <t>Summarized description: New York City Sightseeing Scenic cruise. Enjoy the Statue of Liberty and Ellis Island up close. View of the Manhattan skyline, One World Trade Center and the Empire State Building.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: New York: Statue of Liberty and Ellis Island Sunset Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty Sunset Cruise and New York City Sky Line </t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P3</t>
+          <t>PRODUCTCODE: 2540NYCCRUISE</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
+          <t>Summarized description: Take in unrivaled views of Manhattan's skyline and other New York City landmarks on this 1-hour sightseeing cruise around New York Harbor. Glide past the new Freedom Tower and the Empire State Building.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
+          <t>Title: New York City Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P200</t>
+          <t>PRODUCTCODE: 74526P3</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: 60-minute boat ride to see the Statue of Liberty &amp; Ellis Island. Multilingual audio tour is available in English, Italian, German, Spanish, French, Korean, Portuguese, Chinese and Japanese, via a downloadable app.</t>
+          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 60-Minute Statue of Liberty Sightseeing Cruise </t>
+          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P143</t>
+          <t>PRODUCTCODE: 15081P200</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island and the Brooklyn Bridge. Get up close to Lady Liberty and Ellis Island on the Sunset Cruise. Enjoy the NYC Skyline and the sunsets and the lights of the City come to life.</t>
+          <t>Summarized description: 60-minute boat ride to see the Statue of Liberty &amp; Ellis Island. Multilingual audio tour is available in English, Italian, German, Spanish, French, Korean, Portuguese, Chinese and Japanese, via a downloadable app.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: NYC: Statue of Liberty &amp; Skyline 90 Min Sunset Cruise &amp; Cash Bar</t>
+          <t xml:space="preserve">Title: 60-Minute Statue of Liberty Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P66</t>
+          <t>PRODUCTCODE: 15081P143</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
+          <t>Summarized description: Sail around the Statue of Liberty, Ellis Island and the Brooklyn Bridge. Get up close to Lady Liberty and Ellis Island on the Sunset Cruise. Enjoy the NYC Skyline and the sunsets and the lights of the City come to life.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
+          <t>Title: NYC: Statue of Liberty &amp; Skyline 90 Min Sunset Cruise &amp; Cash Bar</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P7</t>
+          <t>PRODUCTCODE: 336379P66</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
+          <t>Summarized description: The NYC skyline and Statue of Liberty night cruise is unique because it offers a stunning and romantic perspective of the city's iconic landmarks illuminated at night. The cruise allows visitors to experience the city from a different angle and offers a relaxing break from the busy streets.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Night Cruise and Skyline </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P98</t>
+          <t>PRODUCTCODE: 6288P22</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Head uptown to experience The 160-year history of St. Patrick’s Cathedral. skip the line tickets to MOMA with this NYC Combo.</t>
+          <t>Summarized description: Sail past Manhattan's financial district, Ellis Island and the Statue of Liberty. Enjoy this beautiful boat, 80-feet in length and about 2000 square feet of sail area.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise, St Patrick's Cathedral &amp; Moma entrance </t>
+          <t>Title: New York City Skyline Lights Sail</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P154</t>
+          <t>PRODUCTCODE: 15081P275</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the 911 Memorial Museum and New York's Ground Zero where the World Trade Center was. Sail around Statue of Liberty on a 60-minute sightseeing cruise that also journeys under the Brooklyn Bridge &amp; over to Ellis Island.</t>
+          <t>Summarized description: Cruise will depart from under the Brooklyn Bridge and sail under the Manhattan Bridge where your we see the whole NYC skyline from the tip of Manhattan. On the cruise we will sail very close to the Statue of Liberty for the picture perfect photo.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 911 Memorial Museum &amp; 60 Lady Liberty Cruise of NYC </t>
+          <t xml:space="preserve">Title: NYC Skyline: Harbor Lights Night Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P117</t>
+          <t>PRODUCTCODE: 195909P7</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: You will receive a personalized overview of Lady Liberty and Ellis Island. You will board your Statue of Liberty Express bus in Midtown to begin your 6-hour tour with your local expert guide.</t>
+          <t>Summarized description: Enjoy a 60 minute sightseeing cruise departing from the Brooklyn Bridge. See the NYC famous skyline. We will sail right next to the Statue of Liberty and you will have incredible opportunities to take selfies and group phones.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Tour from Midtown</t>
+          <t>Title: NOW OPEN: Statue of Liberty Sightseeing Cruise 60 Min</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6288P51</t>
+          <t>PRODUCTCODE: 15081P98</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
+          <t>Summarized description: Set sail from Pier 36 for your 60-minute Statue of Liberty Cruise. Head uptown to experience The 160-year history of St. Patrick’s Cathedral. skip the line tickets to MOMA with this NYC Combo.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
+          <t xml:space="preserve">Title: NYC Combo: Statue of Liberty Cruise, St Patrick's Cathedral &amp; Moma entrance </t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P289</t>
+          <t>PRODUCTCODE: 15081P154</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Double Decker Bus tour takes you to Times Square, Chinatown, One World Trade, Battery Park and the Statue of Liberty. upgrade to go on the Full City tour on Big Bus that will take you to Central Park Harlem and the Museum Mile.</t>
+          <t>Summarized description: Visit the 911 Memorial Museum and New York's Ground Zero where the World Trade Center was. Sail around Statue of Liberty on a 60-minute sightseeing cruise that also journeys under the Brooklyn Bridge &amp; over to Ellis Island.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Big Bus Double Decker Tour &amp; Statue of Liberty Sightseeing Cruise </t>
+          <t xml:space="preserve">Title: 911 Memorial Museum &amp; 60 Lady Liberty Cruise of NYC </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P466</t>
+          <t>PRODUCTCODE: 173559P7</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: The 90-minute NYC sunset cruise departing from under the Brooklyn Bridge offers a unique opportunity to witness the beautiful NYC skyline. The duration of the cruise is just right to relax and enjoy refreshments while socializing with fellow passengers.</t>
+          <t>Summarized description: The See NYC Sightseeing cruise is the best way to view the Statue of Liberty and NYC’s most iconic sights - all in one hour. The cruise includes a breathtaking view of the Brooklyn Bridge, Ellis Island, One World Trade Center (Freedom Tower), the awe-inspiring Manhattan skyline and more.Enjoy live onboard narration (English) or follow along in one of nine languages using the Hornblower AudioTour Guide app.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Sunset &amp; Skyline Happy Hour Cruise</t>
+          <t>Title: See NYC Sightseeing Cruise in New York</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P56</t>
+          <t>PRODUCTCODE: 6288P51</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
+          <t>Summarized description: Pass by the Financial District, Ellis Island, and the Statue of Liberty as the boat navigates New York Harbor. Enjoy views from the open bow, or relax in the spacious glass-enclosed observation cabin.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Lady Liberty Lunch Cruise</t>
+          <t>Title: New York City Day Cruise by Statue of Liberty on Small Yacht</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 339911P3</t>
+          <t>PRODUCTCODE: 41446P4</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
+          <t>Summarized description: The harbor tour begins at Pier 25 in Manhattan. Speed down the Hudson River and circle the base of the historic Statue of Liberty. With speeds reaching 50 miles/hour, there will be plenty of time to slow down for some photos.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
+          <t>Title: Speed Boat Tour of Manhattan</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P52</t>
+          <t>PRODUCTCODE: 15081P466</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
+          <t>Summarized description: The 90-minute NYC sunset cruise departing from under the Brooklyn Bridge offers a unique opportunity to witness the beautiful NYC skyline. The duration of the cruise is just right to relax and enjoy refreshments while socializing with fellow passengers.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
+          <t>Title: NYC Statue of Liberty Sunset &amp; Skyline Happy Hour Cruise</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P5</t>
+          <t>PRODUCTCODE: 2540P56</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
+          <t>Summarized description: Live DJ entertainment, a robust lunch buffet, and first-class service. Fun and scenic, our weekday lunch cruise offers a unique alternative to lunch in New York.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
+          <t>Title: Lady Liberty Lunch Cruise</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255280P1</t>
+          <t>PRODUCTCODE: 339911P3</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
+          <t>Summarized description: Spend a special evening aboard a New York City Dinner Cruise. Feast on a buffet of Top Round Beef, Roasted Pork Lion, Chicken Franchise, Baked Tilapia, Pasta, Salad, Potatoes, Veggies, Dessert and more.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
+          <t xml:space="preserve">Title: NYC: Statue of Liberty Dinner Cruise </t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P73</t>
+          <t>PRODUCTCODE: 336379P52</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
+          <t>Summarized description: Sail under the Brooklyn Bridge for views of the Statue of Liberty, Ellis Island, and Manhattan’s skyline. Prebook to guarantee your ticket and save valuable vacation time. Choose from 4 daily departures – 11am, 12:30pm, 2:30am or 4:30m.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty 60-Minute Sightseeing Cruise - Flexible Departure </t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5042P73</t>
+          <t>PRODUCTCODE: 12214P5</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: This scenic cruise offers a 90-minute comprehensive experience of NYC’s must-see sights. With convenient Downtown pick-up location, board to see the historic and awe-inspiring Statue of Liberty.</t>
+          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: NYC Downtown Sightseeing Cruise</t>
+          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P167</t>
+          <t>PRODUCTCODE: 255280P1</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Sail around the Statue of Liberty on a 60-minute sightseeing cruise. Journeys under the Brooklyn Bridge &amp; over to Ellis Island choose from admission to 1 or 3 attractions.</t>
+          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: NYC Landmarks Skip the Line Cruise and Attraction Ticket</t>
+          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P11</t>
+          <t>PRODUCTCODE: 336379P73</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
+          <t>Summarized description: Get within just 100 feet of the Statue of Liberty. Choose from indoor or outdoor viewing areas, listen to live narration. Enjoy the New York Harbor Skyline.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
+          <t>Title: NY 60 min Statue of Liberty Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P233</t>
+          <t>PRODUCTCODE: 5042P73</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
+          <t>Summarized description: This scenic cruise offers a 90-minute comprehensive experience of NYC’s must-see sights. With convenient Downtown pick-up location, board to see the historic and awe-inspiring Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
+          <t>Title: NYC Downtown Sightseeing Cruise</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 15081P167</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: Sail around the Statue of Liberty on a 60-minute sightseeing cruise. Journeys under the Brooklyn Bridge &amp; over to Ellis Island choose from admission to 1 or 3 attractions.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: NYC Landmarks Skip the Line Cruise and Attraction Ticket</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 15081P233</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P204</t>
+          <t>PRODUCTCODE: 336379P9</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
+          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P528</t>
+          <t>PRODUCTCODE: 74526P26</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive package features the iconic Empire State Building observation deck and a scenic 60-minute cruise to the Statue of Liberty. Book now to unlock a curated journey that harmonizes the city's skyline and its historical treasures, promising an experience that transcends the ordinary.</t>
+          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Empire State Observation Admission and 60 Min Statue Cruise </t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P19</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194COMBO</t>
+          <t>PRODUCTCODE: 15081P204</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy breathtaking views from the Empire State Building Observatory. Visit over two million works of art at the Metropolitan Museum of Art. Take a cruise around Liberty Island for a close up of her most famous resident, the Statue of Liberty.</t>
+          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: New York Super Saver: Empire State Building, Metropolitan Museum of Art and Statue of Liberty Cruise</t>
+          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P20</t>
+          <t>PRODUCTCODE: 336379P19</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description: Cruise will pass the Statue of Liberty, Ellis Island, the Brooklyn Bridge and more. We will slow the cruise near the famous Lady Liberty for incredible photo opportunity.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t xml:space="preserve">Title: NYC: Harbor Skyline and NYC Lights and Statue of Liberty </t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172032P1</t>
+          <t>PRODUCTCODE: 2800P32</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: We provide the only water crafts that are allowed to transit under the Liberty - Ellis Bridge. You will see New York harbor, the Statue of Liberty, Caven Point Beach and the NYC skyline. We adjust the float plan depending on water currents and weather conditions.</t>
+          <t>Summarized description: Circle Line is celebrating 75 years with a special package. The package includes a 1-Hour Liberty Cruise departing from Pier 83. A ticket to the Empire State Building and a ticket to Intrepid Sea, Air &amp; Space Museum.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Kayak</t>
+          <t>Title: NYC Tour Package: Liberty Cruise, Empire State, Intrepid Museum</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 378258P1</t>
+          <t>PRODUCTCODE: 13616P20</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 194024P2</t>
+          <t>PRODUCTCODE: 172032P1</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Clear schedule, less wait time, great view at the pier easy time lapse. Minutes walk from Wall Street, seamless to many downtown attractions.</t>
+          <t>Summarized description: We provide the only water crafts that are allowed to transit under the Liberty - Ellis Bridge. You will see New York harbor, the Statue of Liberty, Caven Point Beach and the NYC skyline. We adjust the float plan depending on water currents and weather conditions.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Cruise</t>
+          <t>Title: NYC Statue of Liberty Kayak</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P3</t>
+          <t>PRODUCTCODE: 378258P1</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P494</t>
+          <t>PRODUCTCODE: 15081P427</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
+          <t>Summarized description: 60-minute Statue of Liberty Cruise offers narration, complemented by a surprise visit from Santa Claus. Enjoy the charm of the Seaport District at 19 Fulton St. See the iconic Empire State Building in the skyline backdrop.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
+          <t>Title: NYC Holiday Boat with Santa as Surprise Guest &amp; Statue of Liberty</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2540P127</t>
+          <t>PRODUCTCODE: 336379P3</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty Harbor cruise is the best way to view NYC's most iconic sights. Enjoy a snack or drink while you listen to narrated audio about New York's legendary skyline.</t>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty One Hour Harbor Tour </t>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P3</t>
+          <t>PRODUCTCODE: 368349P494</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
+          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441874P1</t>
+          <t>PRODUCTCODE: 2540P127</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: All aboard the Emerald Princess going along the Hudson River. No cheap experience here only the best customer service. Admire famous New York City landmarks such as Ellis Island, the Empire State Building.</t>
+          <t>Summarized description: The Statue of Liberty Harbor cruise is the best way to view NYC's most iconic sights. Enjoy a snack or drink while you listen to narrated audio about New York's legendary skyline.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty sightseeing boat tour aboard Emerald Princess</t>
+          <t xml:space="preserve">Title: Statue of Liberty One Hour Harbor Tour </t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P59</t>
+          <t>PRODUCTCODE: 122220P3</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Visit United Nations Headquarters to explore the one area of the city outside of US jurisdiction. Complimentary Liberty Cruise Admission to get close to Statue of Liberty and skyline of downtown Manhattan.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: One Day New York City Tour With Liberty Cruise</t>
+          <t>Title: 60-Minute Statue of Liberty Cruise (from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P16</t>
+          <t>PRODUCTCODE: 441874P1</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
+          <t>Summarized description: All aboard the Emerald Princess going along the Hudson River. No cheap experience here only the best customer service. Admire famous New York City landmarks such as Ellis Island, the Empire State Building.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
+          <t>Title: Statue of Liberty sightseeing boat tour aboard Emerald Princess</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 455518P4</t>
+          <t>PRODUCTCODE: 90219P227</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Sail through the historic waters of New York’s harbor to Liberty Island where the world-famous Statue of Liberty stands proud. Walk through the incredible downtown skyline to one of the most iconic bridges in the world, The Brooklyn Bridge.</t>
+          <t>Summarized description: Get stunning views of Lower Manhattan after dark. Sail within 100 feet of the Statue of Liberty. Cruise under the Brooklyn Bridge, Manhattan Bridge and Williamsburg Bridge.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Easy Access Statue of Liberty and Brooklyn Bridge Discovery Tour</t>
+          <t>Title: New York: Exciting 2-Hour Harbor Lights Night Cruise</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P4</t>
+          <t>PRODUCTCODE: 111861P16</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
+          <t>Summarized description: Cruise Port Address: 78 South St, New York, NY 10038 (Pier 15)Schedule: May-Oct 2018 Daily : 9:30-10:30, 10:00-11:00, 11:30 -12:00.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
+          <t>Title: Statue of Liberty Cruise (60-Minute, from Downtown New York City)</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P297</t>
+          <t>PRODUCTCODE: 455518P4</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
+          <t>Summarized description: Sail through the historic waters of New York’s harbor to Liberty Island where the world-famous Statue of Liberty stands proud. Walk through the incredible downtown skyline to one of the most iconic bridges in the world, The Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
+          <t>Title: Easy Access Statue of Liberty and Brooklyn Bridge Discovery Tour</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P502</t>
+          <t>PRODUCTCODE: 255071P4</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12855P231</t>
+          <t>PRODUCTCODE: 324821P297</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty is a symbol of New York. It can be seen from the bridge of the ferries that leave from Battery Park. You can visit the pedestal terrace and the observatory in the crown.</t>
+          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Private Tour</t>
+          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263477P6</t>
+          <t>PRODUCTCODE: 368349P502</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
+          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 12855P231</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19504,6 +19504,156 @@
       <c r="H1267" t="inlineStr"/>
       <c r="I1267" t="inlineStr"/>
     </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>Summarized description: The Statue of Liberty is a symbol of New York. It can be seen from the bridge of the ferries that leave from Battery Park. You can visit the pedestal terrace and the observatory in the crown.</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr"/>
+      <c r="C1268" t="inlineStr"/>
+      <c r="D1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr"/>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr"/>
+      <c r="H1268" t="inlineStr"/>
+      <c r="I1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>Title: Statue of Liberty Private Tour</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr"/>
+      <c r="C1269" t="inlineStr"/>
+      <c r="D1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr"/>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr"/>
+      <c r="I1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr"/>
+      <c r="C1270" t="inlineStr"/>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr"/>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr"/>
+      <c r="H1270" t="inlineStr"/>
+      <c r="I1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr"/>
+      <c r="C1271" t="inlineStr"/>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr"/>
+      <c r="H1271" t="inlineStr"/>
+      <c r="I1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 263477P6</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr"/>
+      <c r="C1272" t="inlineStr"/>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr"/>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr"/>
+      <c r="H1272" t="inlineStr"/>
+      <c r="I1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr"/>
+      <c r="C1273" t="inlineStr"/>
+      <c r="D1273" t="inlineStr"/>
+      <c r="E1273" t="inlineStr"/>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr"/>
+      <c r="I1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr"/>
+      <c r="C1274" t="inlineStr"/>
+      <c r="D1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="inlineStr"/>
+      <c r="H1274" t="inlineStr"/>
+      <c r="I1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr"/>
+      <c r="C1275" t="inlineStr"/>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="inlineStr"/>
+      <c r="H1275" t="inlineStr"/>
+      <c r="I1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr"/>
+      <c r="C1276" t="inlineStr"/>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr"/>
+      <c r="H1276" t="inlineStr"/>
+      <c r="I1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr"/>
+      <c r="C1277" t="inlineStr"/>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr"/>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr"/>
+      <c r="H1277" t="inlineStr"/>
+      <c r="I1277" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
